--- a/DBProcess/Qt和SQL Server数据结构对比表.xlsx
+++ b/DBProcess/Qt和SQL Server数据结构对比表.xlsx
@@ -299,6 +299,168 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">9: QSqlField("dig3float", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>double</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, length: 15, required: no, generated: yes, typeID: 6, autoValue: false, readOnly: false) "0.012345678901234568" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10: QSqlField("time1date", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, length: 10, required: no, generated: yes, autoValue: false, readOnly: false) "2016-10-15" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11: QSqlField("time2dt", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QDateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, length: 23, precision: 3, required: no, generated: yes, typeID: 11, autoValue: false, readOnly: false) "2016-10-15T00:00:00" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12: QSqlField("time3stamp", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QByteArray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, length: 8, required: no, generated: yes, autoValue: false, readOnly: false) "" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13: QSqlField("guid", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, length: 36, required: no, generated: yes, autoValue: false, readOnly: false) "" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14: QSqlField("bin1", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QByteArray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, length: 50, required: no, generated: yes, autoValue: false, readOnly: false) ""</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">8: QSqlField("dig2dec", </t>
     </r>
     <r>
@@ -321,168 +483,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, length: 20, precision: 8, required: no, generated: yes, typeID: 3, autoValue: false, readOnly: false) "123456.78901235" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">9: QSqlField("dig3float", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>double</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, length: 15, required: no, generated: yes, typeID: 6, autoValue: false, readOnly: false) "0.012345678901234568" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10: QSqlField("time1date", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, length: 10, required: no, generated: yes, autoValue: false, readOnly: false) "2016-10-15" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11: QSqlField("time2dt", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QDateTime</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, length: 23, precision: 3, required: no, generated: yes, typeID: 11, autoValue: false, readOnly: false) "2016-10-15T00:00:00" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12: QSqlField("time3stamp", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QByteArray</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, length: 8, required: no, generated: yes, autoValue: false, readOnly: false) "" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">13: QSqlField("guid", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, length: 36, required: no, generated: yes, autoValue: false, readOnly: false) "" </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">14: QSqlField("bin1", </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>QByteArray</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, length: 50, required: no, generated: yes, autoValue: false, readOnly: false) ""</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,7 +858,7 @@
   <dimension ref="A2:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -960,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -968,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -976,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -984,7 +984,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
